--- a/Stadium_Ticket_Booking_Salman_VS_Java_Full_Stack_167_25_07_2022.xlsx
+++ b/Stadium_Ticket_Booking_Salman_VS_Java_Full_Stack_167_25_07_2022.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="28">
   <si>
     <t xml:space="preserve">Time Estimate for Project Name</t>
   </si>
@@ -79,7 +79,25 @@
     <t xml:space="preserve">Registration</t>
   </si>
   <si>
-    <t xml:space="preserve">Pending</t>
+    <t xml:space="preserve">registration form conatin usename email password and retype password also login with google is also provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User,Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment page and home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment page, which pay using card.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about,feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pending</t>
   </si>
   <si>
     <t xml:space="preserve">Development Phase</t>
@@ -92,11 +110,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -126,12 +145,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -201,7 +214,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -242,10 +255,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -262,7 +271,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -271,10 +280,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -287,10 +292,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -374,10 +375,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.84"/>
@@ -504,12 +505,12 @@
         <v>16</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="9" t="n">
         <v>44767</v>
       </c>
-      <c r="I6" s="10" t="n">
+      <c r="I6" s="9" t="n">
         <v>44767</v>
       </c>
       <c r="J6" s="9"/>
@@ -517,121 +518,137 @@
         <v>17</v>
       </c>
       <c r="L6" s="5"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="14" t="n">
+      <c r="F7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="9" t="n">
         <v>44767</v>
       </c>
-      <c r="I7" s="15" t="n">
+      <c r="I7" s="9" t="n">
         <v>44767</v>
       </c>
-      <c r="J7" s="14" t="n">
+      <c r="J7" s="9" t="n">
         <v>44768</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>19</v>
+      <c r="K7" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="L7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="n">
+      <c r="A8" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="17" t="n">
-        <v>44768</v>
-      </c>
-      <c r="I8" s="18" t="n">
-        <v>44768</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>44769</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="n">
+        <v>44770</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="L8" s="5"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="n">
+      <c r="A9" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="17" t="n">
-        <v>44769</v>
-      </c>
-      <c r="I9" s="18" t="n">
-        <v>44769</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="D9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H9" s="13" t="n">
+        <v>44770</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14" t="n">
+        <v>44771</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="L9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="n">
+      <c r="A10" s="15" t="n">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -643,13 +660,13 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="17" t="n">
+      <c r="G10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16" t="n">
         <v>44770</v>
       </c>
-      <c r="I10" s="18" t="n">
+      <c r="I10" s="16" t="n">
         <v>44770</v>
       </c>
       <c r="J10" s="5"/>
@@ -657,7 +674,7 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="n">
+      <c r="A11" s="15" t="n">
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -669,13 +686,13 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="17" t="n">
+      <c r="G11" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="16" t="n">
         <v>44771</v>
       </c>
-      <c r="I11" s="18" t="n">
+      <c r="I11" s="16" t="n">
         <v>44771</v>
       </c>
       <c r="J11" s="5"/>
@@ -683,7 +700,7 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="n">
+      <c r="A12" s="15" t="n">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -695,13 +712,13 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="17" t="n">
+      <c r="G12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="16" t="n">
         <v>44772</v>
       </c>
-      <c r="I12" s="18" t="n">
+      <c r="I12" s="16" t="n">
         <v>44772</v>
       </c>
       <c r="J12" s="5"/>
@@ -709,7 +726,7 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="n">
+      <c r="A13" s="15" t="n">
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -721,13 +738,13 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="17" t="n">
+      <c r="G13" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="16" t="n">
         <v>44773</v>
       </c>
-      <c r="I13" s="18" t="n">
+      <c r="I13" s="16" t="n">
         <v>44773</v>
       </c>
       <c r="J13" s="5"/>
@@ -735,7 +752,7 @@
       <c r="L13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="n">
+      <c r="A14" s="15" t="n">
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -747,13 +764,13 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="17" t="n">
+      <c r="G14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="16" t="n">
         <v>44774</v>
       </c>
-      <c r="I14" s="18" t="n">
+      <c r="I14" s="16" t="n">
         <v>44774</v>
       </c>
       <c r="J14" s="5"/>
@@ -761,7 +778,7 @@
       <c r="L14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="n">
+      <c r="A15" s="15" t="n">
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -773,13 +790,13 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="17" t="n">
+      <c r="G15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="16" t="n">
         <v>44775</v>
       </c>
-      <c r="I15" s="18" t="n">
+      <c r="I15" s="16" t="n">
         <v>44775</v>
       </c>
       <c r="J15" s="5"/>
@@ -787,7 +804,7 @@
       <c r="L15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="n">
+      <c r="A16" s="15" t="n">
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -799,13 +816,13 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="17" t="n">
+      <c r="G16" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="16" t="n">
         <v>44776</v>
       </c>
-      <c r="I16" s="18" t="n">
+      <c r="I16" s="16" t="n">
         <v>44776</v>
       </c>
       <c r="J16" s="5"/>
@@ -813,7 +830,7 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="n">
+      <c r="A17" s="15" t="n">
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -825,13 +842,13 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="17" t="n">
+      <c r="G17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16" t="n">
         <v>44777</v>
       </c>
-      <c r="I17" s="18" t="n">
+      <c r="I17" s="16" t="n">
         <v>44777</v>
       </c>
       <c r="J17" s="5"/>
@@ -839,7 +856,7 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="n">
+      <c r="A18" s="15" t="n">
         <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -851,13 +868,13 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="17" t="n">
+      <c r="G18" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="16" t="n">
         <v>44778</v>
       </c>
-      <c r="I18" s="18" t="n">
+      <c r="I18" s="16" t="n">
         <v>44778</v>
       </c>
       <c r="J18" s="5"/>
@@ -865,25 +882,25 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="n">
+      <c r="A19" s="15" t="n">
         <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="16" t="n">
+      <c r="G19" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="H19" s="17" t="n">
+      <c r="H19" s="16" t="n">
         <v>44779</v>
       </c>
-      <c r="I19" s="18" t="n">
+      <c r="I19" s="16" t="n">
         <v>44779</v>
       </c>
       <c r="J19" s="5"/>
@@ -891,25 +908,25 @@
       <c r="L19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="n">
+      <c r="A20" s="15" t="n">
         <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="16" t="n">
+      <c r="G20" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="H20" s="17" t="n">
+      <c r="H20" s="16" t="n">
         <v>44780</v>
       </c>
-      <c r="I20" s="18" t="n">
+      <c r="I20" s="16" t="n">
         <v>44780</v>
       </c>
       <c r="J20" s="5"/>
@@ -917,25 +934,25 @@
       <c r="L20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="n">
+      <c r="A21" s="15" t="n">
         <v>3</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="16" t="n">
+      <c r="G21" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="H21" s="17" t="n">
+      <c r="H21" s="16" t="n">
         <v>44781</v>
       </c>
-      <c r="I21" s="18" t="n">
+      <c r="I21" s="16" t="n">
         <v>44781</v>
       </c>
       <c r="J21" s="5"/>
@@ -943,25 +960,25 @@
       <c r="L21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="n">
+      <c r="A22" s="15" t="n">
         <v>4</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="16" t="n">
+      <c r="G22" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="H22" s="17" t="n">
+      <c r="H22" s="16" t="n">
         <v>44782</v>
       </c>
-      <c r="I22" s="18" t="n">
+      <c r="I22" s="16" t="n">
         <v>44782</v>
       </c>
       <c r="J22" s="5"/>
@@ -969,25 +986,25 @@
       <c r="L22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="n">
+      <c r="A23" s="15" t="n">
         <v>5</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="16" t="n">
+      <c r="G23" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="H23" s="17" t="n">
+      <c r="H23" s="16" t="n">
         <v>44783</v>
       </c>
-      <c r="I23" s="18" t="n">
+      <c r="I23" s="16" t="n">
         <v>44783</v>
       </c>
       <c r="J23" s="5"/>
@@ -995,25 +1012,25 @@
       <c r="L23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="n">
+      <c r="A24" s="15" t="n">
         <v>6</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="16" t="n">
+      <c r="G24" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="H24" s="17" t="n">
+      <c r="H24" s="16" t="n">
         <v>44784</v>
       </c>
-      <c r="I24" s="18" t="n">
+      <c r="I24" s="16" t="n">
         <v>44784</v>
       </c>
       <c r="J24" s="5"/>
@@ -1021,25 +1038,25 @@
       <c r="L24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="n">
+      <c r="A25" s="15" t="n">
         <v>7</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="17" t="n">
+      <c r="G25" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="16" t="n">
         <v>44785</v>
       </c>
-      <c r="I25" s="18" t="n">
+      <c r="I25" s="16" t="n">
         <v>44785</v>
       </c>
       <c r="J25" s="5"/>
@@ -1047,25 +1064,25 @@
       <c r="L25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="n">
+      <c r="A26" s="15" t="n">
         <v>8</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="16" t="n">
+      <c r="G26" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="H26" s="17" t="n">
+      <c r="H26" s="16" t="n">
         <v>44786</v>
       </c>
-      <c r="I26" s="18" t="n">
+      <c r="I26" s="16" t="n">
         <v>44786</v>
       </c>
       <c r="J26" s="5"/>
@@ -1073,25 +1090,25 @@
       <c r="L26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="n">
+      <c r="A27" s="15" t="n">
         <v>9</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="16" t="n">
+      <c r="G27" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="H27" s="17" t="n">
+      <c r="H27" s="16" t="n">
         <v>44787</v>
       </c>
-      <c r="I27" s="18" t="n">
+      <c r="I27" s="16" t="n">
         <v>44787</v>
       </c>
       <c r="J27" s="5"/>
@@ -1099,25 +1116,25 @@
       <c r="L27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="n">
+      <c r="A28" s="15" t="n">
         <v>10</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="16" t="n">
+      <c r="G28" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="H28" s="17" t="n">
+      <c r="H28" s="16" t="n">
         <v>44788</v>
       </c>
-      <c r="I28" s="18" t="n">
+      <c r="I28" s="16" t="n">
         <v>44788</v>
       </c>
       <c r="J28" s="5"/>
@@ -1125,25 +1142,25 @@
       <c r="L28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="n">
+      <c r="A29" s="15" t="n">
         <v>11</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="16" t="n">
+      <c r="G29" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="H29" s="17" t="n">
+      <c r="H29" s="16" t="n">
         <v>44789</v>
       </c>
-      <c r="I29" s="18" t="n">
+      <c r="I29" s="16" t="n">
         <v>44789</v>
       </c>
       <c r="J29" s="5"/>
@@ -1151,25 +1168,25 @@
       <c r="L29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="n">
+      <c r="A30" s="15" t="n">
         <v>12</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="16" t="n">
+      <c r="G30" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="H30" s="17" t="n">
+      <c r="H30" s="16" t="n">
         <v>44790</v>
       </c>
-      <c r="I30" s="18" t="n">
+      <c r="I30" s="16" t="n">
         <v>44790</v>
       </c>
       <c r="J30" s="5"/>
@@ -1177,25 +1194,25 @@
       <c r="L30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16" t="n">
+      <c r="A31" s="15" t="n">
         <v>13</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="17" t="n">
+      <c r="G31" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="16" t="n">
         <v>44791</v>
       </c>
-      <c r="I31" s="18" t="n">
+      <c r="I31" s="16" t="n">
         <v>44791</v>
       </c>
       <c r="J31" s="5"/>
@@ -1203,25 +1220,25 @@
       <c r="L31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="n">
+      <c r="A32" s="15" t="n">
         <v>1</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" s="17" t="n">
+      <c r="G32" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="16" t="n">
         <v>44792</v>
       </c>
-      <c r="I32" s="18" t="n">
+      <c r="I32" s="16" t="n">
         <v>44792</v>
       </c>
       <c r="J32" s="5"/>
@@ -1229,25 +1246,25 @@
       <c r="L32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16" t="n">
+      <c r="A33" s="15" t="n">
         <v>2</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" s="17" t="n">
+      <c r="G33" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="16" t="n">
         <v>44793</v>
       </c>
-      <c r="I33" s="18" t="n">
+      <c r="I33" s="16" t="n">
         <v>44793</v>
       </c>
       <c r="J33" s="5"/>
@@ -1255,25 +1272,25 @@
       <c r="L33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16" t="n">
+      <c r="A34" s="15" t="n">
         <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" s="17" t="n">
+      <c r="G34" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="16" t="n">
         <v>44794</v>
       </c>
-      <c r="I34" s="18" t="n">
+      <c r="I34" s="16" t="n">
         <v>44794</v>
       </c>
       <c r="J34" s="5"/>
@@ -1281,25 +1298,25 @@
       <c r="L34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16" t="n">
+      <c r="A35" s="15" t="n">
         <v>4</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" s="17" t="n">
+      <c r="G35" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="16" t="n">
         <v>44795</v>
       </c>
-      <c r="I35" s="18" t="n">
+      <c r="I35" s="16" t="n">
         <v>44795</v>
       </c>
       <c r="J35" s="5"/>
@@ -1307,25 +1324,25 @@
       <c r="L35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16" t="n">
+      <c r="A36" s="15" t="n">
         <v>5</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" s="17" t="n">
+      <c r="G36" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="16" t="n">
         <v>44796</v>
       </c>
-      <c r="I36" s="18" t="n">
+      <c r="I36" s="16" t="n">
         <v>44796</v>
       </c>
       <c r="J36" s="5"/>
@@ -1333,25 +1350,25 @@
       <c r="L36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16" t="n">
+      <c r="A37" s="15" t="n">
         <v>6</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" s="17" t="n">
+      <c r="G37" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="16" t="n">
         <v>44797</v>
       </c>
-      <c r="I37" s="18" t="n">
+      <c r="I37" s="16" t="n">
         <v>44797</v>
       </c>
       <c r="J37" s="5"/>
@@ -1359,195 +1376,195 @@
       <c r="L37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19" t="n">
+      <c r="A38" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" s="21" t="n">
+      <c r="B38" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="19" t="n">
         <v>44798</v>
       </c>
-      <c r="I38" s="22" t="n">
+      <c r="I38" s="19" t="n">
         <v>44798</v>
       </c>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
     </row>
     <row r="39" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="19" t="n">
+      <c r="A39" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="B39" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" s="21" t="n">
+      <c r="B39" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="19" t="n">
         <v>44799</v>
       </c>
-      <c r="I39" s="22" t="n">
+      <c r="I39" s="19" t="n">
         <v>44799</v>
       </c>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
     </row>
     <row r="40" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="19" t="n">
+      <c r="A40" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="B40" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" s="21" t="n">
+      <c r="B40" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="19" t="n">
         <v>44800</v>
       </c>
-      <c r="I40" s="22" t="n">
+      <c r="I40" s="19" t="n">
         <v>44800</v>
       </c>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
     </row>
     <row r="41" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="19" t="n">
+      <c r="A41" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="21" t="n">
+      <c r="B41" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="19" t="n">
         <v>44801</v>
       </c>
-      <c r="I41" s="22" t="n">
+      <c r="I41" s="19" t="n">
         <v>44801</v>
       </c>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
     </row>
     <row r="42" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19" t="n">
+      <c r="A42" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="B42" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" s="21" t="n">
+      <c r="B42" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="19" t="n">
         <v>44802</v>
       </c>
-      <c r="I42" s="22" t="n">
+      <c r="I42" s="19" t="n">
         <v>44802</v>
       </c>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
     </row>
     <row r="43" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" s="21" t="n">
+      <c r="A43" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="19" t="n">
         <v>44803</v>
       </c>
-      <c r="I43" s="22" t="n">
+      <c r="I43" s="19" t="n">
         <v>44803</v>
       </c>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
     </row>
     <row r="44" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="19" t="n">
+      <c r="A44" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="B44" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" s="21" t="n">
+      <c r="B44" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="19" t="n">
         <v>44804</v>
       </c>
-      <c r="I44" s="22" t="n">
+      <c r="I44" s="19" t="n">
         <v>44804</v>
       </c>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
     </row>
     <row r="45" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="16"/>
+      <c r="G45" s="15"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -1555,13 +1572,13 @@
       <c r="L45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="16"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="16"/>
+      <c r="G46" s="15"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -1569,13 +1586,13 @@
       <c r="L46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="16"/>
+      <c r="G47" s="15"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -1583,13 +1600,13 @@
       <c r="L47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="16"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="16"/>
+      <c r="G48" s="15"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -1597,13 +1614,13 @@
       <c r="L48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="29.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="16"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="16"/>
+      <c r="G49" s="15"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
